--- a/Median test nordpool.xlsx
+++ b/Median test nordpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai\Desktop\2023-2024\DDU\Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F247F72-A76F-4091-A1F3-F85D8A1500DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA372C-156F-4288-B6FB-06E44CA1CF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5885F11-F848-414E-8C19-45B4655707EA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
   <si>
     <t>k</t>
   </si>
@@ -74,13 +74,51 @@
   <si>
     <t>len and dot hhv.</t>
   </si>
+  <si>
+    <t>kvadrat</t>
+  </si>
+  <si>
+    <t>Nordpool</t>
+  </si>
+  <si>
+    <t>Median k=3</t>
+  </si>
+  <si>
+    <t>Median k=7</t>
+  </si>
+  <si>
+    <t>Median k=13</t>
+  </si>
+  <si>
+    <t>Median k=17</t>
+  </si>
+  <si>
+    <t>Median k=19</t>
+  </si>
+  <si>
+    <t>len &gt;</t>
+  </si>
+  <si>
+    <t>&lt; dot</t>
+  </si>
+  <si>
+    <t>cos sim &gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -108,14 +146,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,8 +209,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Test</a:t>
+              <a:t>Test: sammenligning af 5</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" i="1" baseline="0"/>
+              <a:t>k-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>værdier m. Nordpool prognose</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -213,11 +267,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$D$1</c:f>
+              <c:f>'Ark1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=3</c:v>
+                  <c:v>Median k=3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -236,7 +290,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -317,7 +371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$D$2:$D$25</c:f>
+              <c:f>'Ark1'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -408,11 +462,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$K$1</c:f>
+              <c:f>'Ark1'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=7</c:v>
+                  <c:v>Median k=7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -431,7 +485,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -512,7 +566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$K$2:$K$25</c:f>
+              <c:f>'Ark1'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -603,11 +657,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$R$1</c:f>
+              <c:f>'Ark1'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=13</c:v>
+                  <c:v>Median k=13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -626,7 +680,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -707,7 +761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$R$2:$R$25</c:f>
+              <c:f>'Ark1'!$L$2:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -794,15 +848,243 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$Y$1</c:f>
+              <c:f>'Ark1'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>price</c:v>
+                  <c:v>Median k=17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$Q$2:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>702.32868462684098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>663.63291847031303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>622.26162198703298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>610.20914228595097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>609.27313103382198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>667.144266779502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>654.53931171639897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630.47886591835595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>596.19307817716594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>551.58267259396803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>439.99360594581498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>414.07010508120101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>416.46613573885702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>395.13150372140501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>396.08621785775102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>403.59667840147802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>489.27772739065801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>596.14898326908406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>750.58304375767204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>872.67449156558405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>940.77879371897802</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>912.12012609349301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>813.01975355784703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>721.46456620610104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8B4-4512-95B1-67646CE84967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median k=19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$V$2:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>684.74431488213395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>646.15725172380303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>619.26055051288802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.33371414067994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>606.57983446558399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>666.38046394575099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>729.93914118018199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>751.90836595181997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>724.76269109191605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>641.95783699409105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>481.149378513692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>414.75956960943103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>429.10539482662398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>411.52651956411199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>405.08662287535901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>409.48459666424401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>493.31306111715099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620.82328858073799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>762.33062837289901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>918.81305771120196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>968.87158173200396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>912.12012609349301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>779.98245926861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>709.79167161140697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8B4-4512-95B1-67646CE84967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nordpool</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -821,7 +1103,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -902,7 +1184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$Y$2:$Y$25</c:f>
+              <c:f>'Ark1'!$AB$2:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1021,6 +1303,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Timer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1086,6 +1423,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Pris (DKK/MW/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1290,11 +1682,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$D$1</c:f>
+              <c:f>'Ark1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=3</c:v>
+                  <c:v>Median k=3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1313,7 +1705,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1394,7 +1786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$D$2:$D$25</c:f>
+              <c:f>'Ark1'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1485,11 +1877,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$K$1</c:f>
+              <c:f>'Ark1'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=7</c:v>
+                  <c:v>Median k=7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1508,7 +1900,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1589,7 +1981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$K$2:$K$25</c:f>
+              <c:f>'Ark1'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1680,11 +2072,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$R$1</c:f>
+              <c:f>'Ark1'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=13</c:v>
+                  <c:v>Median k=13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1703,7 +2095,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1784,7 +2176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$R$2:$R$25</c:f>
+              <c:f>'Ark1'!$L$2:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1875,7 +2267,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$Y$1</c:f>
+              <c:f>'Ark1'!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1898,7 +2290,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1979,7 +2371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$Y$2:$Y$25</c:f>
+              <c:f>'Ark1'!$AB$2:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2367,11 +2759,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$D$1</c:f>
+              <c:f>'Ark1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=3</c:v>
+                  <c:v>Median k=3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2390,7 +2782,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2471,7 +2863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$D$2:$D$25</c:f>
+              <c:f>'Ark1'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2562,11 +2954,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$K$1</c:f>
+              <c:f>'Ark1'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=7</c:v>
+                  <c:v>Median k=7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2585,7 +2977,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2666,7 +3058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$K$2:$K$25</c:f>
+              <c:f>'Ark1'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2757,11 +3149,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$R$1</c:f>
+              <c:f>'Ark1'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median k=13</c:v>
+                  <c:v>Median k=13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2780,7 +3172,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2861,7 +3253,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$R$2:$R$25</c:f>
+              <c:f>'Ark1'!$L$2:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2952,7 +3344,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ark1'!$Y$1</c:f>
+              <c:f>'Ark1'!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2975,7 +3367,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$C$2:$C$25</c:f>
+              <c:f>'Ark1'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3056,7 +3448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$Y$2:$Y$25</c:f>
+              <c:f>'Ark1'!$AB$2:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5036,16 +5428,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>15861</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>149012</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>814916</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>143933</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>98213</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579487</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137017</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5471,2023 +5863,2315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE8049D-0508-4C09-8DE8-EF2E6745257F}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="83" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y25"/>
+    <sheetView tabSelected="1" topLeftCell="V22" zoomScale="133" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="18.88671875" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3">
+        <v>672.20127731454102</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2*B2</f>
+        <v>451854.55722330045</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2*$AB2</f>
+        <v>455255.03707404603</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>672.20127731454102</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2*G2</f>
+        <v>451854.55722330045</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2*$AB2</f>
+        <v>455255.03707404603</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>672.20127731454102</v>
+      </c>
+      <c r="M2" s="3">
+        <f>L2*L2</f>
+        <v>451854.55722330045</v>
+      </c>
+      <c r="N2" s="3">
+        <f>L2*$AB2</f>
+        <v>455255.03707404603</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>702.32868462684098</v>
+      </c>
+      <c r="R2" s="3">
+        <f>Q2*Q2</f>
+        <v>493265.58124966867</v>
+      </c>
+      <c r="S2" s="3">
+        <f>Q2*$AB2</f>
+        <v>475659.1249503743</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>684.74431488213395</v>
+      </c>
+      <c r="W2" s="3">
+        <f>V2*V2</f>
+        <v>468874.77676340303</v>
+      </c>
+      <c r="X2" s="3">
+        <f>V2*$AB2</f>
+        <v>463749.93469707406</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>677.26</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>AB2*AB2</f>
+        <v>458681.10759999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>637.83238783060199</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">B3*B3</f>
+        <v>406830.15496568748</v>
+      </c>
+      <c r="D3" s="3">
+        <f>B3*$AB3</f>
+        <v>417659.02587535646</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>637.83238783060199</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H25" si="1">G3*G3</f>
+        <v>406830.15496568748</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3*$AB3</f>
+        <v>417659.02587535646</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>637.83238783060199</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M25" si="2">L3*L3</f>
+        <v>406830.15496568748</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3*$AB3</f>
+        <v>417659.02587535646</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>663.63291847031303</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R25" si="3">Q3*Q3</f>
+        <v>440408.65047742514</v>
+      </c>
+      <c r="S3" s="3">
+        <f>Q3*$AB3</f>
+        <v>434553.47134354565</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>646.15725172380303</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3:W25" si="4">V3*V3</f>
+        <v>417519.19395525818</v>
+      </c>
+      <c r="X3" s="3">
+        <f>V3*$AB3</f>
+        <v>423110.23000126344</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>654.80999999999995</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" ref="AC3:AC25" si="5">AB3*AB3</f>
+        <v>428776.13609999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>672.20127731454102</v>
-      </c>
-      <c r="E2" s="3">
-        <f>D2*D2</f>
-        <v>451854.55722330045</v>
-      </c>
-      <c r="F2" s="3">
-        <f>E2*$Y2</f>
-        <v>306023017.42505246</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>672.20127731454102</v>
-      </c>
-      <c r="L2" s="3">
-        <f>K2*K2</f>
-        <v>451854.55722330045</v>
-      </c>
-      <c r="M2" s="3">
-        <f>L2*$Y2</f>
-        <v>306023017.42505246</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>672.20127731454102</v>
-      </c>
-      <c r="S2" s="3">
-        <f>R2*R2</f>
-        <v>451854.55722330045</v>
-      </c>
-      <c r="T2" s="3">
-        <f>S2*$Y2</f>
-        <v>306023017.42505246</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="W2" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>677.26</v>
-      </c>
-      <c r="Z2" s="3">
-        <f>Y2*Y2</f>
-        <v>458681.10759999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>637.83238783060199</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E25" si="0">D3*D3</f>
-        <v>406830.15496568748</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F25" si="1">E3*$Y3</f>
-        <v>266396453.77308181</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>637.83238783060199</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L25" si="2">K3*K3</f>
-        <v>406830.15496568748</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M25" si="3">L3*$Y3</f>
-        <v>266396453.77308181</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>637.83238783060199</v>
-      </c>
-      <c r="S3" s="3">
-        <f t="shared" ref="S3:S25" si="4">R3*R3</f>
-        <v>406830.15496568748</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:T25" si="5">S3*$Y3</f>
-        <v>266396453.77308181</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="W3" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>654.80999999999995</v>
-      </c>
-      <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z25" si="6">Y3*Y3</f>
-        <v>428776.13609999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="3">
         <v>619.26055051288802</v>
       </c>
-      <c r="E4" s="3">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>383483.62942152511</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D4" s="3">
+        <f>B4*$AB4</f>
+        <v>398432.23819999216</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>619.26055051288802</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>246733367.16980925</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J4">
+        <v>383483.62942152511</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G4*$AB4</f>
+        <v>398432.23819999216</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>615.74105885277697</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>379137.05155713897</v>
+      </c>
+      <c r="N4" s="3">
+        <f>L4*$AB4</f>
+        <v>396167.79726587667</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>622.26162198703298</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="3"/>
+        <v>387209.52619793313</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Q4*$AB4</f>
+        <v>400363.12758645701</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>619.26055051288802</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" si="2"/>
+      <c r="W4" s="3">
+        <f t="shared" si="4"/>
         <v>383483.62942152511</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" si="3"/>
-        <v>246733367.16980925</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q4">
+      <c r="X4" s="3">
+        <f>V4*$AB4</f>
+        <v>398432.23819999216</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="R4">
-        <v>615.74105885277697</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" si="4"/>
-        <v>379137.05155713897</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="AB4" s="2">
+        <v>643.4</v>
+      </c>
+      <c r="AC4" s="3">
         <f t="shared" si="5"/>
-        <v>243936778.97186321</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="W4" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>643.4</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="6"/>
         <v>413963.56</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="3">
         <v>596.42881067332905</v>
       </c>
-      <c r="E5" s="3">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>355727.32620120177</v>
       </c>
-      <c r="F5" s="3">
+      <c r="D5" s="3">
+        <f>B5*$AB5</f>
+        <v>390237.40653545246</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>596.42881067332905</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>232748832.26018429</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J5">
+        <v>355727.32620120177</v>
+      </c>
+      <c r="I5" s="3">
+        <f>G5*$AB5</f>
+        <v>390237.40653545246</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>596.42881067332905</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>355727.32620120177</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
+        <f>L5*$AB5</f>
+        <v>390237.40653545246</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>610.20914228595097</v>
+      </c>
+      <c r="R5" s="3">
         <f t="shared" si="3"/>
-        <v>232748832.26018429</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5">
-        <v>13</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q5">
+        <v>372355.19732935599</v>
+      </c>
+      <c r="S5" s="3">
+        <f>Q5*$AB5</f>
+        <v>399253.73970627482</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="R5">
-        <v>596.42881067332905</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="V5">
+        <v>600.33371414067994</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="4"/>
-        <v>355727.32620120177</v>
-      </c>
-      <c r="T5" s="3">
+        <v>360400.56833394361</v>
+      </c>
+      <c r="X5" s="3">
+        <f>V5*$AB5</f>
+        <v>392792.34582510544</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>654.29</v>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="5"/>
-        <v>232748832.26018429</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="W5" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>654.29</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="6"/>
         <v>428095.40409999993</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="B6">
         <v>606.57983446558399</v>
       </c>
-      <c r="E6" s="3">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>367939.09558029525</v>
       </c>
-      <c r="F6" s="3">
+      <c r="D6" s="3">
+        <f>B6*$AB6</f>
+        <v>410090.42868714739</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>606.57983446558399</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>248752584.34897023</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J6">
+        <v>367939.09558029525</v>
+      </c>
+      <c r="I6" s="3">
+        <f>G6*$AB6</f>
+        <v>410090.42868714739</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>606.57983446558399</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>367939.09558029525</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
+        <f>L6*$AB6</f>
+        <v>410090.42868714739</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>609.27313103382198</v>
+      </c>
+      <c r="R6" s="3">
         <f t="shared" si="3"/>
-        <v>248752584.34897023</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q6">
+        <v>371213.74819975684</v>
+      </c>
+      <c r="S6" s="3">
+        <f>Q6*$AB6</f>
+        <v>411911.28569803608</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>606.57983446558399</v>
       </c>
-      <c r="S6" s="3">
+      <c r="W6" s="3">
         <f t="shared" si="4"/>
         <v>367939.09558029525</v>
       </c>
-      <c r="T6" s="3">
+      <c r="X6" s="3">
+        <f>V6*$AB6</f>
+        <v>410090.42868714739</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>676.07</v>
+      </c>
+      <c r="AC6" s="3">
         <f t="shared" si="5"/>
-        <v>248752584.34897023</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="W6" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X6">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>676.07</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="6"/>
         <v>457070.64490000007</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3">
         <v>666.38046394575099</v>
       </c>
-      <c r="E7" s="3">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>444062.92272855435</v>
       </c>
-      <c r="F7" s="3">
+      <c r="D7" s="3">
+        <f>B7*$AB7</f>
+        <v>488790.07030420838</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>666.38046394575099</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>325720153.82139462</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J7">
+        <v>444062.92272855435</v>
+      </c>
+      <c r="I7" s="3">
+        <f>G7*$AB7</f>
+        <v>488790.07030420838</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>666.38046394575099</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>444062.92272855435</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
+        <f>L7*$AB7</f>
+        <v>488790.07030420838</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>667.144266779502</v>
+      </c>
+      <c r="R7" s="3">
         <f t="shared" si="3"/>
-        <v>325720153.82139462</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7">
-        <v>13</v>
-      </c>
-      <c r="P7" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q7">
+        <v>445081.47269675933</v>
+      </c>
+      <c r="S7" s="3">
+        <f>Q7*$AB7</f>
+        <v>489350.3196827647</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>666.38046394575099</v>
       </c>
-      <c r="S7" s="3">
+      <c r="W7" s="3">
         <f t="shared" si="4"/>
         <v>444062.92272855435</v>
       </c>
-      <c r="T7" s="3">
+      <c r="X7" s="3">
+        <f>V7*$AB7</f>
+        <v>488790.07030420838</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>733.5</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="5"/>
-        <v>325720153.82139462</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="W7" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>733.5</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="6"/>
         <v>538022.25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="B8" s="3">
         <v>871.02429623036801</v>
       </c>
-      <c r="E8" s="3">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>758683.32462360791</v>
       </c>
-      <c r="F8" s="3">
+      <c r="D8" s="3">
+        <f>B8*$AB8</f>
+        <v>611938.11931664497</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>729.93914118018199</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>533012969.71431571</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J8">
+        <v>532811.14982686169</v>
+      </c>
+      <c r="I8" s="3">
+        <f>G8*$AB8</f>
+        <v>512818.74363613682</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>729.93914118018199</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>532811.14982686169</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <f>L8*$AB8</f>
+        <v>512818.74363613682</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>654.53931171639897</v>
+      </c>
+      <c r="R8" s="3">
         <f t="shared" si="3"/>
-        <v>374326473.31086165</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q8">
+        <v>428421.71058217727</v>
+      </c>
+      <c r="S8" s="3">
+        <f>Q8*$AB8</f>
+        <v>459846.59344635607</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="R8">
+      <c r="V8">
         <v>729.93914118018199</v>
       </c>
-      <c r="S8" s="3">
+      <c r="W8" s="3">
         <f t="shared" si="4"/>
         <v>532811.14982686169</v>
       </c>
-      <c r="T8" s="3">
+      <c r="X8" s="3">
+        <f>V8*$AB8</f>
+        <v>512818.74363613682</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>702.55</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="5"/>
-        <v>374326473.31086165</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="W8" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X8">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>702.55</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="6"/>
         <v>493576.50249999994</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="3">
+      <c r="B9" s="3">
         <v>1009.60589820019</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>1019304.0696806125</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="3">
+        <f>B9*$AB9</f>
+        <v>677899.88034651766</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>829.92622067257003</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>684411717.58704734</v>
-      </c>
-      <c r="H9">
+        <v>688777.53175985545</v>
+      </c>
+      <c r="I9" s="3">
+        <f>G9*$AB9</f>
+        <v>557253.96087059716</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="I9" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J9">
+      <c r="L9">
+        <v>751.90836595181997</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="2"/>
+        <v>565366.19078833598</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9*$AB9</f>
+        <v>504868.87231834955</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>829.92622067257003</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="2"/>
-        <v>688777.53175985545</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="Q9">
+        <v>630.47886591835595</v>
+      </c>
+      <c r="R9" s="3">
         <f t="shared" si="3"/>
-        <v>462479673.70015496</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q9">
+        <v>397503.60036969627</v>
+      </c>
+      <c r="S9" s="3">
+        <f>Q9*$AB9</f>
+        <v>423335.03452088014</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9">
         <v>7</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>751.90836595181997</v>
       </c>
-      <c r="S9" s="3">
+      <c r="W9" s="3">
         <f t="shared" si="4"/>
         <v>565366.19078833598</v>
       </c>
-      <c r="T9" s="3">
+      <c r="X9" s="3">
+        <f>V9*$AB9</f>
+        <v>504868.87231834955</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>671.45</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="5"/>
-        <v>379615128.80482823</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="W9" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X9">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>671.45</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="6"/>
         <v>450845.10250000004</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="B10">
         <v>861.17430805361096</v>
       </c>
-      <c r="E10" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>741621.18885161565</v>
       </c>
-      <c r="F10" s="3">
+      <c r="D10" s="3">
+        <f>B10*$AB10</f>
+        <v>504105.60470534227</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>820.65002199010405</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>434122795.31807023</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J10">
+        <v>673466.45859235828</v>
+      </c>
+      <c r="I10" s="3">
+        <f>G10*$AB10</f>
+        <v>480383.90337234724</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10">
         <v>8</v>
       </c>
-      <c r="K10">
-        <v>820.65002199010405</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10">
+        <v>724.76269109191605</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
-        <v>673466.45859235828</v>
-      </c>
-      <c r="M10" s="3">
+        <v>525280.95839879615</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10*$AB10</f>
+        <v>424254.33648447489</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>596.19307817716594</v>
+      </c>
+      <c r="R10" s="3">
         <f t="shared" si="3"/>
-        <v>394227060.86620879</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10">
-        <v>13</v>
-      </c>
-      <c r="P10" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q10">
+        <v>355446.18646636431</v>
+      </c>
+      <c r="S10" s="3">
+        <f>Q10*$AB10</f>
+        <v>348993.54217256763</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="R10">
+      <c r="V10">
         <v>724.76269109191605</v>
       </c>
-      <c r="S10" s="3">
+      <c r="W10" s="3">
         <f t="shared" si="4"/>
         <v>525280.95839879615</v>
       </c>
-      <c r="T10" s="3">
+      <c r="X10" s="3">
+        <f>V10*$AB10</f>
+        <v>424254.33648447489</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>585.37</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="5"/>
-        <v>307483714.61790329</v>
-      </c>
-      <c r="U10" s="3"/>
-      <c r="W10" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X10">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>585.37</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="6"/>
         <v>342658.03690000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="B11" s="3">
         <v>722.27278805659398</v>
       </c>
-      <c r="E11" s="3">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>521677.9803670455</v>
       </c>
-      <c r="F11" s="3">
+      <c r="D11" s="3">
+        <f>B11*$AB11</f>
+        <v>336059.08282697201</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>715.58049470850904</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>242726330.70517892</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J11">
+        <v>512055.44440727454</v>
+      </c>
+      <c r="I11" s="3">
+        <f>G11*$AB11</f>
+        <v>332945.29257797508</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>715.58049470850904</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="L11">
+        <v>641.95783699409105</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
-        <v>512055.44440727454</v>
-      </c>
-      <c r="M11" s="3">
+        <v>412109.86447813199</v>
+      </c>
+      <c r="N11" s="3">
+        <f>L11*$AB11</f>
+        <v>298690.1423966107</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>551.58267259396803</v>
+      </c>
+      <c r="R11" s="3">
         <f t="shared" si="3"/>
-        <v>238249157.17381668</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11">
-        <v>13</v>
-      </c>
-      <c r="P11" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q11">
+        <v>304243.44470590452</v>
+      </c>
+      <c r="S11" s="3">
+        <f>Q11*$AB11</f>
+        <v>256640.38590452142</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11">
         <v>9</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>641.95783699409105</v>
       </c>
-      <c r="S11" s="3">
+      <c r="W11" s="3">
         <f t="shared" si="4"/>
         <v>412109.86447813199</v>
       </c>
-      <c r="T11" s="3">
+      <c r="X11" s="3">
+        <f>V11*$AB11</f>
+        <v>298690.1423966107</v>
+      </c>
+      <c r="Y11" s="3"/>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>465.28</v>
+      </c>
+      <c r="AC11" s="3">
         <f t="shared" si="5"/>
-        <v>191746477.74438524</v>
-      </c>
-      <c r="U11" s="3"/>
-      <c r="W11" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X11">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>465.28</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="6"/>
         <v>216485.47839999996</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
+      <c r="B12" s="3">
         <v>609.20709473335501</v>
       </c>
-      <c r="E12" s="3">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>371133.28427345498</v>
       </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3">
+        <f>B12*$AB12</f>
+        <v>187075.31465071865</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>609.20709473335501</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>113967608.93469255</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J12">
+        <v>371133.28427345498</v>
+      </c>
+      <c r="I12" s="3">
+        <f>G12*$AB12</f>
+        <v>187075.31465071865</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>609.20709473335501</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12">
+        <v>481.149378513692</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
-        <v>371133.28427345498</v>
-      </c>
-      <c r="M12" s="3">
+        <v>231504.72444411204</v>
+      </c>
+      <c r="N12" s="3">
+        <f>L12*$AB12</f>
+        <v>147751.35115398452</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>439.99360594581498</v>
+      </c>
+      <c r="R12" s="3">
         <f t="shared" si="3"/>
-        <v>113967608.93469255</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12">
-        <v>13</v>
-      </c>
-      <c r="P12" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q12">
+        <v>193594.37327320111</v>
+      </c>
+      <c r="S12" s="3">
+        <f>Q12*$AB12</f>
+        <v>135113.23651384085</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>481.149378513692</v>
       </c>
-      <c r="S12" s="3">
+      <c r="W12" s="3">
         <f t="shared" si="4"/>
         <v>231504.72444411204</v>
       </c>
-      <c r="T12" s="3">
+      <c r="X12" s="3">
+        <f>V12*$AB12</f>
+        <v>147751.35115398452</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>307.08</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="5"/>
-        <v>71090470.782297924</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="W12" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X12">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>307.08</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="6"/>
         <v>94298.126399999994</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="B13" s="3">
         <v>570.85423584327998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>325874.55858021515</v>
       </c>
-      <c r="F13" s="3">
+      <c r="D13" s="3">
+        <f>B13*$AB13</f>
+        <v>132763.56963007161</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>570.85423584327998</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>75788646.089000627</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J13">
+        <v>325874.55858021515</v>
+      </c>
+      <c r="I13" s="3">
+        <f>G13*$AB13</f>
+        <v>132763.56963007161</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13">
         <v>11</v>
       </c>
-      <c r="K13">
-        <v>570.85423584327998</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="L13">
+        <v>414.75956960943103</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>325874.55858021515</v>
-      </c>
-      <c r="M13" s="3">
+        <v>172025.50058260045</v>
+      </c>
+      <c r="N13" s="3">
+        <f>L13*$AB13</f>
+        <v>96460.633104065375</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>414.07010508120101</v>
+      </c>
+      <c r="R13" s="3">
         <f t="shared" si="3"/>
-        <v>75788646.089000627</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13">
-        <v>13</v>
-      </c>
-      <c r="P13" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q13">
+        <v>171454.05192195685</v>
+      </c>
+      <c r="S13" s="3">
+        <f>Q13*$AB13</f>
+        <v>96300.284338734913</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13">
         <v>11</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>414.75956960943103</v>
       </c>
-      <c r="S13" s="3">
+      <c r="W13" s="3">
         <f t="shared" si="4"/>
         <v>172025.50058260045</v>
       </c>
-      <c r="T13" s="3">
+      <c r="X13" s="3">
+        <f>V13*$AB13</f>
+        <v>96460.633104065375</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>232.57</v>
+      </c>
+      <c r="AC13" s="3">
         <f t="shared" si="5"/>
-        <v>40007970.670495383</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="W13" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X13">
-        <v>11</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>232.57</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="6"/>
         <v>54088.804899999996</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="B14" s="3">
         <v>473.02625053929597</v>
       </c>
-      <c r="E14" s="3">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>223753.8336992648</v>
       </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <f>B14*$AB14</f>
+        <v>87959.23128778208</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>473.02625053929597</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>41607025.376378283</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J14">
+        <v>223753.8336992648</v>
+      </c>
+      <c r="I14" s="3">
+        <f>G14*$AB14</f>
+        <v>87959.23128778208</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>473.02625053929597</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14">
+        <v>429.10539482662398</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>223753.8336992648</v>
-      </c>
-      <c r="M14" s="3">
+        <v>184131.43986931286</v>
+      </c>
+      <c r="N14" s="3">
+        <f>L14*$AB14</f>
+        <v>79792.148168010724</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>416.46613573885702</v>
+      </c>
+      <c r="R14" s="3">
         <f t="shared" si="3"/>
-        <v>41607025.376378283</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14">
-        <v>13</v>
-      </c>
-      <c r="P14" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q14">
+        <v>173444.04221725609</v>
+      </c>
+      <c r="S14" s="3">
+        <f>Q14*$AB14</f>
+        <v>77441.877940640465</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14">
         <v>12</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>429.10539482662398</v>
       </c>
-      <c r="S14" s="3">
+      <c r="W14" s="3">
         <f t="shared" si="4"/>
         <v>184131.43986931286</v>
       </c>
-      <c r="T14" s="3">
+      <c r="X14" s="3">
+        <f>V14*$AB14</f>
+        <v>79792.148168010724</v>
+      </c>
+      <c r="Y14" s="3"/>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>185.95</v>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="5"/>
-        <v>34239241.243698724</v>
-      </c>
-      <c r="U14" s="3"/>
-      <c r="W14" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X14">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>185.95</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="6"/>
         <v>34577.402499999997</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="3">
+      <c r="B15" s="3">
         <v>425.59482102635502</v>
       </c>
-      <c r="E15" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>181130.95168445515</v>
       </c>
-      <c r="F15" s="3">
+      <c r="D15" s="3">
+        <f>B15*$AB15</f>
+        <v>46125.966702836355</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>425.59482102635502</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>19630972.54356125</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J15">
+        <v>181130.95168445515</v>
+      </c>
+      <c r="I15" s="3">
+        <f>G15*$AB15</f>
+        <v>46125.966702836355</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15">
         <v>13</v>
       </c>
-      <c r="K15">
-        <v>425.59482102635502</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15">
+        <v>411.52651956411199</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="2"/>
-        <v>181130.95168445515</v>
-      </c>
-      <c r="M15" s="3">
+        <v>169354.07630455145</v>
+      </c>
+      <c r="N15" s="3">
+        <f>L15*$AB15</f>
+        <v>44601.244190358455</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>395.13150372140501</v>
+      </c>
+      <c r="R15" s="3">
         <f t="shared" si="3"/>
-        <v>19630972.54356125</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15">
+        <v>156128.90523313871</v>
+      </c>
+      <c r="S15" s="3">
+        <f>Q15*$AB15</f>
+        <v>42824.35237332587</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15">
         <v>13</v>
       </c>
-      <c r="P15" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-      <c r="R15">
+      <c r="V15">
         <v>411.52651956411199</v>
       </c>
-      <c r="S15" s="3">
+      <c r="W15" s="3">
         <f t="shared" si="4"/>
         <v>169354.07630455145</v>
       </c>
-      <c r="T15" s="3">
+      <c r="X15" s="3">
+        <f>V15*$AB15</f>
+        <v>44601.244190358455</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>108.38</v>
+      </c>
+      <c r="AC15" s="3">
         <f t="shared" si="5"/>
-        <v>18354594.789887287</v>
-      </c>
-      <c r="U15" s="3"/>
-      <c r="W15" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X15">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>108.38</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="6"/>
         <v>11746.224399999999</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="3">
+      <c r="B16" s="3">
         <v>469.20414081643901</v>
       </c>
-      <c r="E16" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>220152.52575929274</v>
       </c>
-      <c r="F16" s="3">
+      <c r="D16" s="3">
+        <f>B16*$AB16</f>
+        <v>46685.812011235685</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>469.20414081643901</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>21905176.313049626</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J16">
+        <v>220152.52575929274</v>
+      </c>
+      <c r="I16" s="3">
+        <f>G16*$AB16</f>
+        <v>46685.812011235685</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16">
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>469.20414081643901</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="L16">
+        <v>405.08662287535901</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="2"/>
-        <v>220152.52575929274</v>
-      </c>
-      <c r="M16" s="3">
+        <v>164095.17203256334</v>
+      </c>
+      <c r="N16" s="3">
+        <f>L16*$AB16</f>
+        <v>40306.118976098223</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>396.08621785775102</v>
+      </c>
+      <c r="R16" s="3">
         <f t="shared" si="3"/>
-        <v>21905176.313049626</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16">
-        <v>13</v>
-      </c>
-      <c r="P16" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q16">
+        <v>156884.29197685781</v>
+      </c>
+      <c r="S16" s="3">
+        <f>Q16*$AB16</f>
+        <v>39410.578676846228</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16">
         <v>14</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>405.08662287535901</v>
       </c>
-      <c r="S16" s="3">
+      <c r="W16" s="3">
         <f t="shared" si="4"/>
         <v>164095.17203256334</v>
       </c>
-      <c r="T16" s="3">
+      <c r="X16" s="3">
+        <f>V16*$AB16</f>
+        <v>40306.118976098223</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="5"/>
-        <v>16327469.617240053</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="W16" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X16">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>99.5</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="6"/>
         <v>9900.25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="3">
+      <c r="B17" s="3">
         <v>547.68402717789502</v>
       </c>
-      <c r="E17" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>299957.79362579726</v>
       </c>
-      <c r="F17" s="3">
+      <c r="D17" s="3">
+        <f>B17*$AB17</f>
+        <v>106332.85387658833</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>547.68402717789502</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>58236805.632448539</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J17">
+        <v>299957.79362579726</v>
+      </c>
+      <c r="I17" s="3">
+        <f>G17*$AB17</f>
+        <v>106332.85387658833</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17">
         <v>15</v>
       </c>
-      <c r="K17">
-        <v>547.68402717789502</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17">
+        <v>409.48459666424401</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>299957.79362579726</v>
-      </c>
-      <c r="M17" s="3">
+        <v>167677.6349052786</v>
+      </c>
+      <c r="N17" s="3">
+        <f>L17*$AB17</f>
+        <v>79501.434442362981</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>403.59667840147802</v>
+      </c>
+      <c r="R17" s="3">
         <f t="shared" si="3"/>
-        <v>58236805.632448539</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17">
-        <v>13</v>
-      </c>
-      <c r="P17" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q17">
+        <v>162890.27881670606</v>
+      </c>
+      <c r="S17" s="3">
+        <f>Q17*$AB17</f>
+        <v>78358.295111646963</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17">
         <v>15</v>
       </c>
-      <c r="R17">
+      <c r="V17">
         <v>409.48459666424401</v>
       </c>
-      <c r="S17" s="3">
+      <c r="W17" s="3">
         <f t="shared" si="4"/>
         <v>167677.6349052786</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
+        <f>V17*$AB17</f>
+        <v>79501.434442362981</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>194.15</v>
+      </c>
+      <c r="AC17" s="3">
         <f t="shared" si="5"/>
-        <v>32554612.816859841</v>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="W17" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X17">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>194.15</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="6"/>
         <v>37694.222500000003</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
+      <c r="B18" s="3">
         <v>603.33222421250002</v>
       </c>
-      <c r="E18" s="3">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>364009.77277320239</v>
       </c>
-      <c r="F18" s="3">
+      <c r="D18" s="3">
+        <f>B18*$AB18</f>
+        <v>286299.24035555765</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>603.33222421250002</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>172733557.47406772</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J18">
+        <v>364009.77277320239</v>
+      </c>
+      <c r="I18" s="3">
+        <f>G18*$AB18</f>
+        <v>286299.24035555765</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18">
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>603.33222421250002</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18">
+        <v>493.31306111715099</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="2"/>
-        <v>364009.77277320239</v>
-      </c>
-      <c r="M18" s="3">
+        <v>243357.77626877395</v>
+      </c>
+      <c r="N18" s="3">
+        <f>L18*$AB18</f>
+        <v>234091.84689192165</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>489.27772739065801</v>
+      </c>
+      <c r="R18" s="3">
         <f t="shared" si="3"/>
-        <v>172733557.47406772</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18">
-        <v>13</v>
-      </c>
-      <c r="P18" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q18">
+        <v>239392.69452056705</v>
+      </c>
+      <c r="S18" s="3">
+        <f>Q18*$AB18</f>
+        <v>232176.95997868894</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18">
         <v>16</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>493.31306111715099</v>
       </c>
-      <c r="S18" s="3">
+      <c r="W18" s="3">
         <f t="shared" si="4"/>
         <v>243357.77626877395</v>
       </c>
-      <c r="T18" s="3">
+      <c r="X18" s="3">
+        <f>V18*$AB18</f>
+        <v>234091.84689192165</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>474.53</v>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="5"/>
-        <v>115480565.57282129</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="W18" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X18">
-        <v>16</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>474.53</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="6"/>
         <v>225178.72089999999</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="B19">
         <v>744.48154624870597</v>
       </c>
-      <c r="E19" s="3">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>554252.77270486415</v>
       </c>
-      <c r="F19" s="3">
+      <c r="D19" s="3">
+        <f>B19*$AB19</f>
+        <v>440680.9616709965</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>681.116499076433</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>328078843.74719024</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J19">
+        <v>463919.68531413656</v>
+      </c>
+      <c r="I19" s="3">
+        <f>G19*$AB19</f>
+        <v>403173.28929831297</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19">
         <v>17</v>
       </c>
-      <c r="K19">
-        <v>681.116499076433</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="L19">
+        <v>596.14898326908406</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>463919.68531413656</v>
-      </c>
-      <c r="M19" s="3">
+        <v>355393.61025276268</v>
+      </c>
+      <c r="N19" s="3">
+        <f>L19*$AB19</f>
+        <v>352878.46766646887</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>596.14898326908406</v>
+      </c>
+      <c r="R19" s="3">
         <f t="shared" si="3"/>
-        <v>274607979.32799685</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19">
-        <v>13</v>
-      </c>
-      <c r="P19" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q19">
+        <v>355393.61025276268</v>
+      </c>
+      <c r="S19" s="3">
+        <f>Q19*$AB19</f>
+        <v>352878.46766646887</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19">
         <v>17</v>
       </c>
-      <c r="R19">
-        <v>596.14898326908406</v>
-      </c>
-      <c r="S19" s="3">
+      <c r="V19">
+        <v>620.82328858073799</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="4"/>
-        <v>355393.61025276268</v>
-      </c>
-      <c r="T19" s="3">
+        <v>385421.55564420228</v>
+      </c>
+      <c r="X19" s="3">
+        <f>V19*$AB19</f>
+        <v>367483.92920959619</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="AA19">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>591.92999999999995</v>
+      </c>
+      <c r="AC19" s="3">
         <f t="shared" si="5"/>
-        <v>210368139.71691778</v>
-      </c>
-      <c r="U19" s="3"/>
-      <c r="W19" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X19">
-        <v>17</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>591.92999999999995</v>
-      </c>
-      <c r="Z19" s="3">
-        <f t="shared" si="6"/>
         <v>350381.12489999994</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20" s="3">
+      <c r="B20" s="3">
         <v>895.74183541919797</v>
       </c>
-      <c r="E20" s="3">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>802353.4357201535</v>
       </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
+        <f>B20*$AB20</f>
+        <v>654823.11136485043</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>847.68972389016199</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>586552455.64886093</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J20">
+        <v>718577.86798897909</v>
+      </c>
+      <c r="I20" s="3">
+        <f>G20*$AB20</f>
+        <v>619695.09575266403</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20">
         <v>18</v>
       </c>
-      <c r="K20">
-        <v>847.68972389016199</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20">
+        <v>750.58304375767204</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>718577.86798897909</v>
-      </c>
-      <c r="M20" s="3">
+        <v>563374.90557653143</v>
+      </c>
+      <c r="N20" s="3">
+        <f>L20*$AB20</f>
+        <v>548706.22830860852</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>750.58304375767204</v>
+      </c>
+      <c r="R20" s="3">
         <f t="shared" si="3"/>
-        <v>525309164.61466324</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20">
-        <v>13</v>
-      </c>
-      <c r="P20" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q20">
+        <v>563374.90557653143</v>
+      </c>
+      <c r="S20" s="3">
+        <f>Q20*$AB20</f>
+        <v>548706.22830860852</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20">
         <v>18</v>
       </c>
-      <c r="R20">
-        <v>750.58304375767204</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="V20">
+        <v>762.33062837289901</v>
+      </c>
+      <c r="W20" s="3">
         <f t="shared" si="4"/>
-        <v>563374.90557653143</v>
-      </c>
-      <c r="T20" s="3">
+        <v>581147.98695541907</v>
+      </c>
+      <c r="X20" s="3">
+        <f>V20*$AB20</f>
+        <v>557294.18256572401</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="AA20">
+        <v>18</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>731.04</v>
+      </c>
+      <c r="AC20" s="3">
         <f t="shared" si="5"/>
-        <v>411849590.97266752</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="W20" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X20">
-        <v>18</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>731.04</v>
-      </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="6"/>
         <v>534419.48159999994</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21" s="3">
+      <c r="B21" s="3">
         <v>1171.4654608539099</v>
       </c>
-      <c r="E21" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>1372331.3259736635</v>
       </c>
-      <c r="F21" s="3">
+      <c r="D21" s="3">
+        <f>B21*$AB21</f>
+        <v>1065307.2607913285</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>1053.7927671919499</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>1247970661.2139301</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J21">
+        <v>1110479.1961860671</v>
+      </c>
+      <c r="I21" s="3">
+        <f>G21*$AB21</f>
+        <v>958298.06662901537</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21">
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>1053.7927671919499</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21">
+        <v>932.73011804184705</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="2"/>
-        <v>1110479.1961860671</v>
-      </c>
-      <c r="M21" s="3">
+        <v>869985.47310235794</v>
+      </c>
+      <c r="N21" s="3">
+        <f>L21*$AB21</f>
+        <v>848206.11474489491</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>872.67449156558405</v>
+      </c>
+      <c r="R21" s="3">
         <f t="shared" si="3"/>
-        <v>1009847571.4276856</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21">
-        <v>13</v>
-      </c>
-      <c r="P21" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q21">
+        <v>761560.76822925068</v>
+      </c>
+      <c r="S21" s="3">
+        <f>Q21*$AB21</f>
+        <v>793592.72913991078</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21">
         <v>19</v>
       </c>
-      <c r="R21">
-        <v>932.73011804184705</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="V21">
+        <v>918.81305771120196</v>
+      </c>
+      <c r="W21" s="3">
         <f t="shared" si="4"/>
-        <v>869985.47310235794</v>
-      </c>
-      <c r="T21" s="3">
+        <v>844217.43502060859</v>
+      </c>
+      <c r="X21" s="3">
+        <f>V21*$AB21</f>
+        <v>835550.21842141286</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="AA21">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>909.38</v>
+      </c>
+      <c r="AC21" s="3">
         <f t="shared" si="5"/>
-        <v>791147389.52982223</v>
-      </c>
-      <c r="U21" s="3"/>
-      <c r="W21" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X21">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>909.38</v>
-      </c>
-      <c r="Z21" s="3">
-        <f t="shared" si="6"/>
         <v>826971.98439999996</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" s="3">
+      <c r="B22" s="3">
         <v>1276.35507054342</v>
       </c>
-      <c r="E22" s="3">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>1629082.2661018986</v>
       </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3">
+        <f>B22*$AB22</f>
+        <v>1289029.276393916</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>1154.97699925196</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>1645259053.0042903</v>
-      </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J22">
+        <v>1333971.868801062</v>
+      </c>
+      <c r="I22" s="3">
+        <f>G22*$AB22</f>
+        <v>1166445.9208545319</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22">
         <v>20</v>
       </c>
-      <c r="K22">
-        <v>1154.97699925196</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22">
+        <v>940.77879371897802</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="2"/>
-        <v>1333971.868801062</v>
-      </c>
-      <c r="M22" s="3">
+        <v>885064.73871133535</v>
+      </c>
+      <c r="N22" s="3">
+        <f>L22*$AB22</f>
+        <v>950120.72714060743</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>940.77879371897802</v>
+      </c>
+      <c r="R22" s="3">
         <f t="shared" si="3"/>
-        <v>1347218209.4582565</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22">
-        <v>13</v>
-      </c>
-      <c r="P22" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q22">
+        <v>885064.73871133535</v>
+      </c>
+      <c r="S22" s="3">
+        <f>Q22*$AB22</f>
+        <v>950120.72714060743</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22">
         <v>20</v>
       </c>
-      <c r="R22">
-        <v>940.77879371897802</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="V22">
+        <v>968.87158173200396</v>
+      </c>
+      <c r="W22" s="3">
         <f t="shared" si="4"/>
-        <v>885064.73871133535</v>
-      </c>
-      <c r="T22" s="3">
+        <v>938712.14188787527</v>
+      </c>
+      <c r="X22" s="3">
+        <f>V22*$AB22</f>
+        <v>978492.47653860273</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="AA22">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1009.93</v>
+      </c>
+      <c r="AC22" s="3">
         <f t="shared" si="5"/>
-        <v>893853431.56673884</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="W22" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X22">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>1009.93</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="6"/>
         <v>1019958.6048999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" s="3">
+      <c r="B23" s="3">
         <v>1043.60938214611</v>
       </c>
-      <c r="E23" s="3">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>1089120.5425033853</v>
       </c>
-      <c r="F23" s="3">
+      <c r="D23" s="3">
+        <f>B23*$AB23</f>
+        <v>883968.45495921944</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>927.05369487667895</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>922517773.11664248</v>
-      </c>
-      <c r="H23">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J23">
+        <v>859428.55318450253</v>
+      </c>
+      <c r="I23" s="3">
+        <f>G23*$AB23</f>
+        <v>785242.29117139336</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23">
         <v>21</v>
       </c>
-      <c r="K23">
-        <v>927.05369487667895</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23">
+        <v>889.37632840399601</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="2"/>
-        <v>859428.55318450253</v>
-      </c>
-      <c r="M23" s="3">
+        <v>790990.25352537259</v>
+      </c>
+      <c r="N23" s="3">
+        <f>L23*$AB23</f>
+        <v>753328.43144803669</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>912.12012609349301</v>
+      </c>
+      <c r="R23" s="3">
         <f t="shared" si="3"/>
-        <v>727961767.40386915</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23">
-        <v>13</v>
-      </c>
-      <c r="P23" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q23">
+        <v>831963.12442480959</v>
+      </c>
+      <c r="S23" s="3">
+        <f>Q23*$AB23</f>
+        <v>772593.1104049714</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23">
         <v>21</v>
       </c>
-      <c r="R23">
-        <v>889.37632840399601</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="V23">
+        <v>912.12012609349301</v>
+      </c>
+      <c r="W23" s="3">
         <f t="shared" si="4"/>
-        <v>790990.25352537259</v>
-      </c>
-      <c r="T23" s="3">
+        <v>831963.12442480959</v>
+      </c>
+      <c r="X23" s="3">
+        <f>V23*$AB23</f>
+        <v>772593.1104049714</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="AA23">
+        <v>21</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>847.03</v>
+      </c>
+      <c r="AC23" s="3">
         <f t="shared" si="5"/>
-        <v>669992474.44359636</v>
-      </c>
-      <c r="U23" s="3"/>
-      <c r="W23" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X23">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>847.03</v>
-      </c>
-      <c r="Z23" s="3">
-        <f t="shared" si="6"/>
         <v>717459.82089999993</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="3">
+      <c r="B24" s="3">
         <v>853.26910796661105</v>
       </c>
-      <c r="E24" s="3">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>728068.17061013612</v>
       </c>
-      <c r="F24" s="3">
+      <c r="D24" s="3">
+        <f>B24*$AB24</f>
+        <v>574454.8942474412</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>853.26910796661105</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>490164615.18156803</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J24">
+        <v>728068.17061013612</v>
+      </c>
+      <c r="I24" s="3">
+        <f>G24*$AB24</f>
+        <v>574454.8942474412</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24">
         <v>22</v>
       </c>
-      <c r="K24">
-        <v>853.26910796661105</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24">
+        <v>779.98245926861</v>
+      </c>
+      <c r="M24" s="3">
         <f t="shared" si="2"/>
-        <v>728068.17061013612</v>
-      </c>
-      <c r="M24" s="3">
+        <v>608372.63676670881</v>
+      </c>
+      <c r="N24" s="3">
+        <f>L24*$AB24</f>
+        <v>525115.39087799902</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <v>813.01975355784703</v>
+      </c>
+      <c r="R24" s="3">
         <f t="shared" si="3"/>
-        <v>490164615.18156803</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24">
-        <v>13</v>
-      </c>
-      <c r="P24" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q24">
+        <v>661001.11967526237</v>
+      </c>
+      <c r="S24" s="3">
+        <f>Q24*$AB24</f>
+        <v>547357.41888528492</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24">
         <v>22</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>779.98245926861</v>
       </c>
-      <c r="S24" s="3">
+      <c r="W24" s="3">
         <f t="shared" si="4"/>
         <v>608372.63676670881</v>
       </c>
-      <c r="T24" s="3">
+      <c r="X24" s="3">
+        <f>V24*$AB24</f>
+        <v>525115.39087799902</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="AA24">
+        <v>22</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>673.24</v>
+      </c>
+      <c r="AC24" s="3">
         <f t="shared" si="5"/>
-        <v>409580793.97681904</v>
-      </c>
-      <c r="U24" s="3"/>
-      <c r="W24" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X24">
-        <v>22</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>673.24</v>
-      </c>
-      <c r="Z24" s="3">
-        <f t="shared" si="6"/>
         <v>453252.09760000004</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45417</v>
-      </c>
-      <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25" s="3">
+      <c r="B25" s="3">
         <v>721.46456620610104</v>
       </c>
-      <c r="E25" s="3">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>520511.12029095757</v>
       </c>
-      <c r="F25" s="3">
+      <c r="D25" s="3">
+        <f>B25*$AB25</f>
+        <v>449876.44490347634</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>721.542649735993</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>324569914.16862947</v>
-      </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1">
-        <v>45417</v>
-      </c>
-      <c r="J25">
+        <v>520623.79538803786</v>
+      </c>
+      <c r="I25" s="3">
+        <f>G25*$AB25</f>
+        <v>449925.13466937578</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25">
         <v>23</v>
       </c>
-      <c r="K25">
-        <v>721.542649735993</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="L25">
+        <v>721.46456620610104</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>520623.79538803786</v>
-      </c>
-      <c r="M25" s="3">
+        <v>520511.12029095757</v>
+      </c>
+      <c r="N25" s="3">
+        <f>L25*$AB25</f>
+        <v>449876.44490347634</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <v>721.46456620610104</v>
+      </c>
+      <c r="R25" s="3">
         <f t="shared" si="3"/>
-        <v>324640173.85216486</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25">
-        <v>13</v>
-      </c>
-      <c r="P25" s="1">
-        <v>45417</v>
-      </c>
-      <c r="Q25">
+        <v>520511.12029095757</v>
+      </c>
+      <c r="S25" s="3">
+        <f>Q25*$AB25</f>
+        <v>449876.44490347634</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25">
         <v>23</v>
       </c>
-      <c r="R25">
-        <v>721.46456620610104</v>
-      </c>
-      <c r="S25" s="3">
+      <c r="V25">
+        <v>709.79167161140697</v>
+      </c>
+      <c r="W25" s="3">
         <f t="shared" si="4"/>
-        <v>520511.12029095757</v>
-      </c>
-      <c r="T25" s="3">
+        <v>503804.21708891541</v>
+      </c>
+      <c r="X25" s="3">
+        <f>V25*$AB25</f>
+        <v>442597.69475000887</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>623.55999999999995</v>
+      </c>
+      <c r="AC25" s="3">
         <f t="shared" si="5"/>
-        <v>324569914.16862947</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="W25" s="1">
-        <v>45417</v>
-      </c>
-      <c r="X25">
-        <v>23</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>623.55999999999995</v>
-      </c>
-      <c r="Z25" s="3">
-        <f t="shared" si="6"/>
         <v>388827.07359999995</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="I26" s="1"/>
-      <c r="L26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="3"/>
+      <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="W26" s="1"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4">
-        <f>SQRT(SUM(E2:E25))</f>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f>SQRT(SUM(C2:C25))</f>
         <v>3759.3771563843106</v>
       </c>
-      <c r="F27" s="4">
-        <f>SUM(F2:F25)</f>
-        <v>9569631330.5674152</v>
-      </c>
-      <c r="L27" s="4">
-        <f>SQRT(SUM(L2:L25))</f>
+      <c r="D27">
+        <f>SUM(D2:D25)</f>
+        <v>10941849.286717698</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <f>SQRT(SUM(H2:H25))</f>
         <v>3540.9165661697698</v>
       </c>
-      <c r="M27" s="4">
-        <f>SUM(M2:M25)</f>
-        <v>8299276047.4789391</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="S27" s="4">
-        <f>SQRT(SUM(S2:S25))</f>
+      <c r="I27">
+        <f>SUM(I2:I25)</f>
+        <v>10294342.788270783</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <f>SQRT(SUM(M2:M25))</f>
         <v>3219.7761310969313</v>
       </c>
-      <c r="T27" s="4">
-        <f>SUM(T2:T25)</f>
-        <v>6916166274.9470177</v>
-      </c>
-      <c r="U27" s="4"/>
-      <c r="Z27" s="4">
-        <f>SQRT(SUM(Z2:Z25))</f>
+      <c r="N27">
+        <f>SUM(N2:N25)</f>
+        <v>9449568.4425945543</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27">
+        <f>SQRT(SUM(R2:R25))</f>
+        <v>3134.933355495079</v>
+      </c>
+      <c r="S27">
+        <f>SUM(S2:S25)</f>
+        <v>9216657.3363948297</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27">
+        <f>SQRT(SUM(W2:W25))</f>
+        <v>3240.9310039664279</v>
+      </c>
+      <c r="X27">
+        <f>SUM(X2:X25)</f>
+        <v>9519229.1222454812</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC27">
+        <f>SQRT(SUM(AC2:AC25))</f>
         <v>2997.8205687632471</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <f>1-F27/(E27*$T$27)</f>
-        <v>0.99963194401606004</v>
-      </c>
-      <c r="M28">
-        <f>1-M27/(L27*$T$27)</f>
-        <v>0.99966110973715461</v>
-      </c>
-      <c r="T28">
-        <f>1-T27/(S27*$T$27)</f>
-        <v>0.99968941940082667</v>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <f>D27/(C27*$AC$27)</f>
+        <v>0.97088813854857747</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <f>I27/(H27*$AC$27)</f>
+        <v>0.9697890962053759</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <f>N27/(M27*$AC$27)</f>
+        <v>0.97899542734839984</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28">
+        <f>S27/(R27*$AC$27)</f>
+        <v>0.98070749290716075</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <f>X27/(W27*$AC$27)</f>
+        <v>0.9797750132044466</v>
       </c>
     </row>
   </sheetData>
@@ -7636,7 +8320,7 @@
         <v>451854.55722330045</v>
       </c>
       <c r="F2" s="3">
-        <f>E2*$AG2</f>
+        <f t="shared" ref="F2:F25" si="0">E2*$AG2</f>
         <v>306023017.42505246</v>
       </c>
       <c r="H2">
@@ -7656,7 +8340,7 @@
         <v>451854.55722330045</v>
       </c>
       <c r="M2" s="3">
-        <f>L2*$AG2</f>
+        <f t="shared" ref="M2:M25" si="1">L2*$AG2</f>
         <v>306023017.42505246</v>
       </c>
       <c r="N2" s="3"/>
@@ -7677,7 +8361,7 @@
         <v>451854.55722330045</v>
       </c>
       <c r="T2" s="3">
-        <f>S2*$AG2</f>
+        <f t="shared" ref="T2:T25" si="2">S2*$AG2</f>
         <v>306023017.42505246</v>
       </c>
       <c r="U2" s="3"/>
@@ -7695,7 +8379,7 @@
         <v>458681.10759999999</v>
       </c>
       <c r="AA2" s="3">
-        <f>Z2*$AG2</f>
+        <f t="shared" ref="AA2:AA25" si="3">Z2*$AG2</f>
         <v>310646366.93317598</v>
       </c>
       <c r="AB2" s="3"/>
@@ -7728,11 +8412,11 @@
         <v>637.83238783060199</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E25" si="0">D3*D3</f>
+        <f t="shared" ref="E3:E25" si="4">D3*D3</f>
         <v>406830.15496568748</v>
       </c>
       <c r="F3" s="3">
-        <f>E3*$AG3</f>
+        <f t="shared" si="0"/>
         <v>266396453.77308181</v>
       </c>
       <c r="H3">
@@ -7748,11 +8432,11 @@
         <v>637.83238783060199</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L25" si="1">K3*K3</f>
+        <f t="shared" ref="L3:L25" si="5">K3*K3</f>
         <v>406830.15496568748</v>
       </c>
       <c r="M3" s="3">
-        <f>L3*$AG3</f>
+        <f t="shared" si="1"/>
         <v>266396453.77308181</v>
       </c>
       <c r="N3" s="3"/>
@@ -7769,11 +8453,11 @@
         <v>637.83238783060199</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3:S25" si="2">R3*R3</f>
+        <f t="shared" ref="S3:S25" si="6">R3*R3</f>
         <v>406830.15496568748</v>
       </c>
       <c r="T3" s="3">
-        <f>S3*$AG3</f>
+        <f t="shared" si="2"/>
         <v>266396453.77308181</v>
       </c>
       <c r="U3" s="3"/>
@@ -7787,11 +8471,11 @@
         <v>654.80999999999995</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z25" si="3">Y3*Y3</f>
+        <f t="shared" ref="Z3:Z25" si="7">Y3*Y3</f>
         <v>428776.13609999995</v>
       </c>
       <c r="AA3" s="3">
-        <f>Z3*$AG3</f>
+        <f t="shared" si="3"/>
         <v>280766901.67964095</v>
       </c>
       <c r="AB3" s="3"/>
@@ -7806,7 +8490,7 @@
         <v>654.80999999999995</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" ref="AH3:AH25" si="4">AG3*AG3</f>
+        <f t="shared" ref="AH3:AH25" si="8">AG3*AG3</f>
         <v>428776.13609999995</v>
       </c>
     </row>
@@ -7824,11 +8508,11 @@
         <v>619.26055051288802</v>
       </c>
       <c r="E4" s="3">
+        <f t="shared" si="4"/>
+        <v>383483.62942152511</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>383483.62942152511</v>
-      </c>
-      <c r="F4" s="3">
-        <f>E4*$AG4</f>
         <v>246733367.16980925</v>
       </c>
       <c r="H4">
@@ -7844,11 +8528,11 @@
         <v>619.26055051288802</v>
       </c>
       <c r="L4" s="3">
+        <f t="shared" si="5"/>
+        <v>383483.62942152511</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
-        <v>383483.62942152511</v>
-      </c>
-      <c r="M4" s="3">
-        <f>L4*$AG4</f>
         <v>246733367.16980925</v>
       </c>
       <c r="N4" s="3"/>
@@ -7865,11 +8549,11 @@
         <v>615.74105885277697</v>
       </c>
       <c r="S4" s="3">
+        <f t="shared" si="6"/>
+        <v>379137.05155713897</v>
+      </c>
+      <c r="T4" s="3">
         <f t="shared" si="2"/>
-        <v>379137.05155713897</v>
-      </c>
-      <c r="T4" s="3">
-        <f>S4*$AG4</f>
         <v>243936778.97186321</v>
       </c>
       <c r="U4" s="3"/>
@@ -7883,11 +8567,11 @@
         <v>643.4</v>
       </c>
       <c r="Z4" s="3">
+        <f t="shared" si="7"/>
+        <v>413963.56</v>
+      </c>
+      <c r="AA4" s="3">
         <f t="shared" si="3"/>
-        <v>413963.56</v>
-      </c>
-      <c r="AA4" s="3">
-        <f>Z4*$AG4</f>
         <v>266344154.50399998</v>
       </c>
       <c r="AB4" s="3"/>
@@ -7902,7 +8586,7 @@
         <v>643.4</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>413963.56</v>
       </c>
     </row>
@@ -7920,11 +8604,11 @@
         <v>596.42881067332905</v>
       </c>
       <c r="E5" s="3">
+        <f t="shared" si="4"/>
+        <v>355727.32620120177</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>355727.32620120177</v>
-      </c>
-      <c r="F5" s="3">
-        <f>E5*$AG5</f>
         <v>232748832.26018429</v>
       </c>
       <c r="H5">
@@ -7940,11 +8624,11 @@
         <v>596.42881067332905</v>
       </c>
       <c r="L5" s="3">
+        <f t="shared" si="5"/>
+        <v>355727.32620120177</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
-        <v>355727.32620120177</v>
-      </c>
-      <c r="M5" s="3">
-        <f>L5*$AG5</f>
         <v>232748832.26018429</v>
       </c>
       <c r="N5" s="3"/>
@@ -7961,11 +8645,11 @@
         <v>596.42881067332905</v>
       </c>
       <c r="S5" s="3">
+        <f t="shared" si="6"/>
+        <v>355727.32620120177</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="2"/>
-        <v>355727.32620120177</v>
-      </c>
-      <c r="T5" s="3">
-        <f>S5*$AG5</f>
         <v>232748832.26018429</v>
       </c>
       <c r="U5" s="3"/>
@@ -7979,11 +8663,11 @@
         <v>654.29</v>
       </c>
       <c r="Z5" s="3">
+        <f t="shared" si="7"/>
+        <v>428095.40409999993</v>
+      </c>
+      <c r="AA5" s="3">
         <f t="shared" si="3"/>
-        <v>428095.40409999993</v>
-      </c>
-      <c r="AA5" s="3">
-        <f>Z5*$AG5</f>
         <v>280098541.94858891</v>
       </c>
       <c r="AB5" s="3"/>
@@ -7998,7 +8682,7 @@
         <v>654.29</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>428095.40409999993</v>
       </c>
     </row>
@@ -8016,11 +8700,11 @@
         <v>606.57983446558399</v>
       </c>
       <c r="E6" s="3">
+        <f t="shared" si="4"/>
+        <v>367939.09558029525</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>367939.09558029525</v>
-      </c>
-      <c r="F6" s="3">
-        <f>E6*$AG6</f>
         <v>248752584.34897023</v>
       </c>
       <c r="H6">
@@ -8036,11 +8720,11 @@
         <v>606.57983446558399</v>
       </c>
       <c r="L6" s="3">
+        <f t="shared" si="5"/>
+        <v>367939.09558029525</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
-        <v>367939.09558029525</v>
-      </c>
-      <c r="M6" s="3">
-        <f>L6*$AG6</f>
         <v>248752584.34897023</v>
       </c>
       <c r="N6" s="3"/>
@@ -8057,11 +8741,11 @@
         <v>606.57983446558399</v>
       </c>
       <c r="S6" s="3">
+        <f t="shared" si="6"/>
+        <v>367939.09558029525</v>
+      </c>
+      <c r="T6" s="3">
         <f t="shared" si="2"/>
-        <v>367939.09558029525</v>
-      </c>
-      <c r="T6" s="3">
-        <f>S6*$AG6</f>
         <v>248752584.34897023</v>
       </c>
       <c r="U6" s="3"/>
@@ -8075,11 +8759,11 @@
         <v>676.07</v>
       </c>
       <c r="Z6" s="3">
+        <f t="shared" si="7"/>
+        <v>457070.64490000007</v>
+      </c>
+      <c r="AA6" s="3">
         <f t="shared" si="3"/>
-        <v>457070.64490000007</v>
-      </c>
-      <c r="AA6" s="3">
-        <f>Z6*$AG6</f>
         <v>309011750.89754307</v>
       </c>
       <c r="AB6" s="3"/>
@@ -8094,7 +8778,7 @@
         <v>676.07</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>457070.64490000007</v>
       </c>
     </row>
@@ -8112,11 +8796,11 @@
         <v>666.38046394575099</v>
       </c>
       <c r="E7" s="3">
+        <f t="shared" si="4"/>
+        <v>444062.92272855435</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>444062.92272855435</v>
-      </c>
-      <c r="F7" s="3">
-        <f>E7*$AG7</f>
         <v>325720153.82139462</v>
       </c>
       <c r="H7">
@@ -8132,11 +8816,11 @@
         <v>666.38046394575099</v>
       </c>
       <c r="L7" s="3">
+        <f t="shared" si="5"/>
+        <v>444062.92272855435</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
-        <v>444062.92272855435</v>
-      </c>
-      <c r="M7" s="3">
-        <f>L7*$AG7</f>
         <v>325720153.82139462</v>
       </c>
       <c r="N7" s="3"/>
@@ -8153,11 +8837,11 @@
         <v>666.38046394575099</v>
       </c>
       <c r="S7" s="3">
+        <f t="shared" si="6"/>
+        <v>444062.92272855435</v>
+      </c>
+      <c r="T7" s="3">
         <f t="shared" si="2"/>
-        <v>444062.92272855435</v>
-      </c>
-      <c r="T7" s="3">
-        <f>S7*$AG7</f>
         <v>325720153.82139462</v>
       </c>
       <c r="U7" s="3"/>
@@ -8171,11 +8855,11 @@
         <v>733.5</v>
       </c>
       <c r="Z7" s="3">
+        <f t="shared" si="7"/>
+        <v>538022.25</v>
+      </c>
+      <c r="AA7" s="3">
         <f t="shared" si="3"/>
-        <v>538022.25</v>
-      </c>
-      <c r="AA7" s="3">
-        <f>Z7*$AG7</f>
         <v>394639320.375</v>
       </c>
       <c r="AB7" s="3"/>
@@ -8190,7 +8874,7 @@
         <v>733.5</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>538022.25</v>
       </c>
     </row>
@@ -8208,11 +8892,11 @@
         <v>871.02429623036801</v>
       </c>
       <c r="E8" s="3">
+        <f t="shared" si="4"/>
+        <v>758683.32462360791</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>758683.32462360791</v>
-      </c>
-      <c r="F8" s="3">
-        <f>E8*$AG8</f>
         <v>533012969.71431571</v>
       </c>
       <c r="H8">
@@ -8228,11 +8912,11 @@
         <v>729.93914118018199</v>
       </c>
       <c r="L8" s="3">
+        <f t="shared" si="5"/>
+        <v>532811.14982686169</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
-        <v>532811.14982686169</v>
-      </c>
-      <c r="M8" s="3">
-        <f>L8*$AG8</f>
         <v>374326473.31086165</v>
       </c>
       <c r="N8" s="3"/>
@@ -8249,11 +8933,11 @@
         <v>729.93914118018199</v>
       </c>
       <c r="S8" s="3">
+        <f t="shared" si="6"/>
+        <v>532811.14982686169</v>
+      </c>
+      <c r="T8" s="3">
         <f t="shared" si="2"/>
-        <v>532811.14982686169</v>
-      </c>
-      <c r="T8" s="3">
-        <f>S8*$AG8</f>
         <v>374326473.31086165</v>
       </c>
       <c r="U8" s="3"/>
@@ -8267,11 +8951,11 @@
         <v>702.55</v>
       </c>
       <c r="Z8" s="3">
+        <f t="shared" si="7"/>
+        <v>493576.50249999994</v>
+      </c>
+      <c r="AA8" s="3">
         <f t="shared" si="3"/>
-        <v>493576.50249999994</v>
-      </c>
-      <c r="AA8" s="3">
-        <f>Z8*$AG8</f>
         <v>346762171.83137494</v>
       </c>
       <c r="AB8" s="3"/>
@@ -8286,7 +8970,7 @@
         <v>702.55</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>493576.50249999994</v>
       </c>
     </row>
@@ -8304,11 +8988,11 @@
         <v>1009.60589820019</v>
       </c>
       <c r="E9" s="3">
+        <f t="shared" si="4"/>
+        <v>1019304.0696806125</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>1019304.0696806125</v>
-      </c>
-      <c r="F9" s="3">
-        <f>E9*$AG9</f>
         <v>684411717.58704734</v>
       </c>
       <c r="H9">
@@ -8324,11 +9008,11 @@
         <v>829.92622067257003</v>
       </c>
       <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>688777.53175985545</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
-        <v>688777.53175985545</v>
-      </c>
-      <c r="M9" s="3">
-        <f>L9*$AG9</f>
         <v>462479673.70015496</v>
       </c>
       <c r="N9" s="3"/>
@@ -8345,11 +9029,11 @@
         <v>751.90836595181997</v>
       </c>
       <c r="S9" s="3">
+        <f t="shared" si="6"/>
+        <v>565366.19078833598</v>
+      </c>
+      <c r="T9" s="3">
         <f t="shared" si="2"/>
-        <v>565366.19078833598</v>
-      </c>
-      <c r="T9" s="3">
-        <f>S9*$AG9</f>
         <v>379615128.80482823</v>
       </c>
       <c r="U9" s="3"/>
@@ -8363,11 +9047,11 @@
         <v>671.45</v>
       </c>
       <c r="Z9" s="3">
+        <f t="shared" si="7"/>
+        <v>450845.10250000004</v>
+      </c>
+      <c r="AA9" s="3">
         <f t="shared" si="3"/>
-        <v>450845.10250000004</v>
-      </c>
-      <c r="AA9" s="3">
-        <f>Z9*$AG9</f>
         <v>302719944.07362503</v>
       </c>
       <c r="AB9" s="3"/>
@@ -8382,7 +9066,7 @@
         <v>671.45</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>450845.10250000004</v>
       </c>
     </row>
@@ -8400,11 +9084,11 @@
         <v>861.17430805361096</v>
       </c>
       <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>741621.18885161565</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>741621.18885161565</v>
-      </c>
-      <c r="F10" s="3">
-        <f>E10*$AG10</f>
         <v>434122795.31807023</v>
       </c>
       <c r="H10">
@@ -8420,11 +9104,11 @@
         <v>820.65002199010405</v>
       </c>
       <c r="L10" s="3">
+        <f t="shared" si="5"/>
+        <v>673466.45859235828</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
-        <v>673466.45859235828</v>
-      </c>
-      <c r="M10" s="3">
-        <f>L10*$AG10</f>
         <v>394227060.86620879</v>
       </c>
       <c r="N10" s="3"/>
@@ -8441,11 +9125,11 @@
         <v>724.76269109191605</v>
       </c>
       <c r="S10" s="3">
+        <f t="shared" si="6"/>
+        <v>525280.95839879615</v>
+      </c>
+      <c r="T10" s="3">
         <f t="shared" si="2"/>
-        <v>525280.95839879615</v>
-      </c>
-      <c r="T10" s="3">
-        <f>S10*$AG10</f>
         <v>307483714.61790329</v>
       </c>
       <c r="U10" s="3"/>
@@ -8459,11 +9143,11 @@
         <v>585.37</v>
       </c>
       <c r="Z10" s="3">
+        <f t="shared" si="7"/>
+        <v>342658.03690000001</v>
+      </c>
+      <c r="AA10" s="3">
         <f t="shared" si="3"/>
-        <v>342658.03690000001</v>
-      </c>
-      <c r="AA10" s="3">
-        <f>Z10*$AG10</f>
         <v>200581735.06015301</v>
       </c>
       <c r="AB10" s="3"/>
@@ -8478,7 +9162,7 @@
         <v>585.37</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>342658.03690000001</v>
       </c>
     </row>
@@ -8496,11 +9180,11 @@
         <v>722.27278805659398</v>
       </c>
       <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>521677.9803670455</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>521677.9803670455</v>
-      </c>
-      <c r="F11" s="3">
-        <f>E11*$AG11</f>
         <v>242726330.70517892</v>
       </c>
       <c r="H11">
@@ -8516,11 +9200,11 @@
         <v>715.58049470850904</v>
       </c>
       <c r="L11" s="3">
+        <f t="shared" si="5"/>
+        <v>512055.44440727454</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="1"/>
-        <v>512055.44440727454</v>
-      </c>
-      <c r="M11" s="3">
-        <f>L11*$AG11</f>
         <v>238249157.17381668</v>
       </c>
       <c r="N11" s="3"/>
@@ -8537,11 +9221,11 @@
         <v>641.95783699409105</v>
       </c>
       <c r="S11" s="3">
+        <f t="shared" si="6"/>
+        <v>412109.86447813199</v>
+      </c>
+      <c r="T11" s="3">
         <f t="shared" si="2"/>
-        <v>412109.86447813199</v>
-      </c>
-      <c r="T11" s="3">
-        <f>S11*$AG11</f>
         <v>191746477.74438524</v>
       </c>
       <c r="U11" s="3"/>
@@ -8555,11 +9239,11 @@
         <v>465.28</v>
       </c>
       <c r="Z11" s="3">
+        <f t="shared" si="7"/>
+        <v>216485.47839999996</v>
+      </c>
+      <c r="AA11" s="3">
         <f t="shared" si="3"/>
-        <v>216485.47839999996</v>
-      </c>
-      <c r="AA11" s="3">
-        <f>Z11*$AG11</f>
         <v>100726363.38995197</v>
       </c>
       <c r="AB11" s="3"/>
@@ -8574,7 +9258,7 @@
         <v>465.28</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>216485.47839999996</v>
       </c>
     </row>
@@ -8592,11 +9276,11 @@
         <v>609.20709473335501</v>
       </c>
       <c r="E12" s="3">
+        <f t="shared" si="4"/>
+        <v>371133.28427345498</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>371133.28427345498</v>
-      </c>
-      <c r="F12" s="3">
-        <f>E12*$AG12</f>
         <v>113967608.93469255</v>
       </c>
       <c r="H12">
@@ -8612,11 +9296,11 @@
         <v>609.20709473335501</v>
       </c>
       <c r="L12" s="3">
+        <f t="shared" si="5"/>
+        <v>371133.28427345498</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="1"/>
-        <v>371133.28427345498</v>
-      </c>
-      <c r="M12" s="3">
-        <f>L12*$AG12</f>
         <v>113967608.93469255</v>
       </c>
       <c r="N12" s="3"/>
@@ -8633,11 +9317,11 @@
         <v>481.149378513692</v>
       </c>
       <c r="S12" s="3">
+        <f t="shared" si="6"/>
+        <v>231504.72444411204</v>
+      </c>
+      <c r="T12" s="3">
         <f t="shared" si="2"/>
-        <v>231504.72444411204</v>
-      </c>
-      <c r="T12" s="3">
-        <f>S12*$AG12</f>
         <v>71090470.782297924</v>
       </c>
       <c r="U12" s="3"/>
@@ -8651,11 +9335,11 @@
         <v>307.08</v>
       </c>
       <c r="Z12" s="3">
+        <f t="shared" si="7"/>
+        <v>94298.126399999994</v>
+      </c>
+      <c r="AA12" s="3">
         <f t="shared" si="3"/>
-        <v>94298.126399999994</v>
-      </c>
-      <c r="AA12" s="3">
-        <f>Z12*$AG12</f>
         <v>28957068.654911995</v>
       </c>
       <c r="AB12" s="3"/>
@@ -8670,7 +9354,7 @@
         <v>307.08</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>94298.126399999994</v>
       </c>
     </row>
@@ -8688,11 +9372,11 @@
         <v>570.85423584327998</v>
       </c>
       <c r="E13" s="3">
+        <f t="shared" si="4"/>
+        <v>325874.55858021515</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>325874.55858021515</v>
-      </c>
-      <c r="F13" s="3">
-        <f>E13*$AG13</f>
         <v>75788646.089000627</v>
       </c>
       <c r="H13">
@@ -8708,11 +9392,11 @@
         <v>570.85423584327998</v>
       </c>
       <c r="L13" s="3">
+        <f t="shared" si="5"/>
+        <v>325874.55858021515</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>325874.55858021515</v>
-      </c>
-      <c r="M13" s="3">
-        <f>L13*$AG13</f>
         <v>75788646.089000627</v>
       </c>
       <c r="N13" s="3"/>
@@ -8729,11 +9413,11 @@
         <v>414.75956960943103</v>
       </c>
       <c r="S13" s="3">
+        <f t="shared" si="6"/>
+        <v>172025.50058260045</v>
+      </c>
+      <c r="T13" s="3">
         <f t="shared" si="2"/>
-        <v>172025.50058260045</v>
-      </c>
-      <c r="T13" s="3">
-        <f>S13*$AG13</f>
         <v>40007970.670495383</v>
       </c>
       <c r="U13" s="3"/>
@@ -8747,11 +9431,11 @@
         <v>232.57</v>
       </c>
       <c r="Z13" s="3">
+        <f t="shared" si="7"/>
+        <v>54088.804899999996</v>
+      </c>
+      <c r="AA13" s="3">
         <f t="shared" si="3"/>
-        <v>54088.804899999996</v>
-      </c>
-      <c r="AA13" s="3">
-        <f>Z13*$AG13</f>
         <v>12579433.355592998</v>
       </c>
       <c r="AB13" s="3"/>
@@ -8766,7 +9450,7 @@
         <v>232.57</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>54088.804899999996</v>
       </c>
     </row>
@@ -8784,11 +9468,11 @@
         <v>473.02625053929597</v>
       </c>
       <c r="E14" s="3">
+        <f t="shared" si="4"/>
+        <v>223753.8336992648</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>223753.8336992648</v>
-      </c>
-      <c r="F14" s="3">
-        <f>E14*$AG14</f>
         <v>41607025.376378283</v>
       </c>
       <c r="H14">
@@ -8804,11 +9488,11 @@
         <v>473.02625053929597</v>
       </c>
       <c r="L14" s="3">
+        <f t="shared" si="5"/>
+        <v>223753.8336992648</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>223753.8336992648</v>
-      </c>
-      <c r="M14" s="3">
-        <f>L14*$AG14</f>
         <v>41607025.376378283</v>
       </c>
       <c r="N14" s="3"/>
@@ -8825,11 +9509,11 @@
         <v>429.10539482662398</v>
       </c>
       <c r="S14" s="3">
+        <f t="shared" si="6"/>
+        <v>184131.43986931286</v>
+      </c>
+      <c r="T14" s="3">
         <f t="shared" si="2"/>
-        <v>184131.43986931286</v>
-      </c>
-      <c r="T14" s="3">
-        <f>S14*$AG14</f>
         <v>34239241.243698724</v>
       </c>
       <c r="U14" s="3"/>
@@ -8843,11 +9527,11 @@
         <v>185.95</v>
       </c>
       <c r="Z14" s="3">
+        <f t="shared" si="7"/>
+        <v>34577.402499999997</v>
+      </c>
+      <c r="AA14" s="3">
         <f t="shared" si="3"/>
-        <v>34577.402499999997</v>
-      </c>
-      <c r="AA14" s="3">
-        <f>Z14*$AG14</f>
         <v>6429667.9948749989</v>
       </c>
       <c r="AB14" s="3"/>
@@ -8862,7 +9546,7 @@
         <v>185.95</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34577.402499999997</v>
       </c>
     </row>
@@ -8880,11 +9564,11 @@
         <v>425.59482102635502</v>
       </c>
       <c r="E15" s="3">
+        <f t="shared" si="4"/>
+        <v>181130.95168445515</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>181130.95168445515</v>
-      </c>
-      <c r="F15" s="3">
-        <f>E15*$AG15</f>
         <v>19630972.54356125</v>
       </c>
       <c r="H15">
@@ -8900,11 +9584,11 @@
         <v>425.59482102635502</v>
       </c>
       <c r="L15" s="3">
+        <f t="shared" si="5"/>
+        <v>181130.95168445515</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
-        <v>181130.95168445515</v>
-      </c>
-      <c r="M15" s="3">
-        <f>L15*$AG15</f>
         <v>19630972.54356125</v>
       </c>
       <c r="N15" s="3"/>
@@ -8921,11 +9605,11 @@
         <v>411.52651956411199</v>
       </c>
       <c r="S15" s="3">
+        <f t="shared" si="6"/>
+        <v>169354.07630455145</v>
+      </c>
+      <c r="T15" s="3">
         <f t="shared" si="2"/>
-        <v>169354.07630455145</v>
-      </c>
-      <c r="T15" s="3">
-        <f>S15*$AG15</f>
         <v>18354594.789887287</v>
       </c>
       <c r="U15" s="3"/>
@@ -8939,11 +9623,11 @@
         <v>108.38</v>
       </c>
       <c r="Z15" s="3">
+        <f t="shared" si="7"/>
+        <v>11746.224399999999</v>
+      </c>
+      <c r="AA15" s="3">
         <f t="shared" si="3"/>
-        <v>11746.224399999999</v>
-      </c>
-      <c r="AA15" s="3">
-        <f>Z15*$AG15</f>
         <v>1273055.8004719999</v>
       </c>
       <c r="AB15" s="3"/>
@@ -8958,7 +9642,7 @@
         <v>108.38</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11746.224399999999</v>
       </c>
     </row>
@@ -8976,11 +9660,11 @@
         <v>469.20414081643901</v>
       </c>
       <c r="E16" s="3">
+        <f t="shared" si="4"/>
+        <v>220152.52575929274</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>220152.52575929274</v>
-      </c>
-      <c r="F16" s="3">
-        <f>E16*$AG16</f>
         <v>21905176.313049626</v>
       </c>
       <c r="H16">
@@ -8996,11 +9680,11 @@
         <v>469.20414081643901</v>
       </c>
       <c r="L16" s="3">
+        <f t="shared" si="5"/>
+        <v>220152.52575929274</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
-        <v>220152.52575929274</v>
-      </c>
-      <c r="M16" s="3">
-        <f>L16*$AG16</f>
         <v>21905176.313049626</v>
       </c>
       <c r="N16" s="3"/>
@@ -9017,11 +9701,11 @@
         <v>405.08662287535901</v>
       </c>
       <c r="S16" s="3">
+        <f t="shared" si="6"/>
+        <v>164095.17203256334</v>
+      </c>
+      <c r="T16" s="3">
         <f t="shared" si="2"/>
-        <v>164095.17203256334</v>
-      </c>
-      <c r="T16" s="3">
-        <f>S16*$AG16</f>
         <v>16327469.617240053</v>
       </c>
       <c r="U16" s="3"/>
@@ -9035,11 +9719,11 @@
         <v>99.5</v>
       </c>
       <c r="Z16" s="3">
+        <f t="shared" si="7"/>
+        <v>9900.25</v>
+      </c>
+      <c r="AA16" s="3">
         <f t="shared" si="3"/>
-        <v>9900.25</v>
-      </c>
-      <c r="AA16" s="3">
-        <f>Z16*$AG16</f>
         <v>985074.875</v>
       </c>
       <c r="AB16" s="3"/>
@@ -9054,7 +9738,7 @@
         <v>99.5</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9900.25</v>
       </c>
     </row>
@@ -9072,11 +9756,11 @@
         <v>547.68402717789502</v>
       </c>
       <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>299957.79362579726</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>299957.79362579726</v>
-      </c>
-      <c r="F17" s="3">
-        <f>E17*$AG17</f>
         <v>58236805.632448539</v>
       </c>
       <c r="H17">
@@ -9092,11 +9776,11 @@
         <v>547.68402717789502</v>
       </c>
       <c r="L17" s="3">
+        <f t="shared" si="5"/>
+        <v>299957.79362579726</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
-        <v>299957.79362579726</v>
-      </c>
-      <c r="M17" s="3">
-        <f>L17*$AG17</f>
         <v>58236805.632448539</v>
       </c>
       <c r="N17" s="3"/>
@@ -9113,11 +9797,11 @@
         <v>409.48459666424401</v>
       </c>
       <c r="S17" s="3">
+        <f t="shared" si="6"/>
+        <v>167677.6349052786</v>
+      </c>
+      <c r="T17" s="3">
         <f t="shared" si="2"/>
-        <v>167677.6349052786</v>
-      </c>
-      <c r="T17" s="3">
-        <f>S17*$AG17</f>
         <v>32554612.816859841</v>
       </c>
       <c r="U17" s="3"/>
@@ -9131,11 +9815,11 @@
         <v>194.15</v>
       </c>
       <c r="Z17" s="3">
+        <f t="shared" si="7"/>
+        <v>37694.222500000003</v>
+      </c>
+      <c r="AA17" s="3">
         <f t="shared" si="3"/>
-        <v>37694.222500000003</v>
-      </c>
-      <c r="AA17" s="3">
-        <f>Z17*$AG17</f>
         <v>7318333.2983750012</v>
       </c>
       <c r="AB17" s="3"/>
@@ -9150,7 +9834,7 @@
         <v>194.15</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37694.222500000003</v>
       </c>
     </row>
@@ -9168,11 +9852,11 @@
         <v>603.33222421250002</v>
       </c>
       <c r="E18" s="3">
+        <f t="shared" si="4"/>
+        <v>364009.77277320239</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>364009.77277320239</v>
-      </c>
-      <c r="F18" s="3">
-        <f>E18*$AG18</f>
         <v>172733557.47406772</v>
       </c>
       <c r="H18">
@@ -9188,11 +9872,11 @@
         <v>603.33222421250002</v>
       </c>
       <c r="L18" s="3">
+        <f t="shared" si="5"/>
+        <v>364009.77277320239</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="1"/>
-        <v>364009.77277320239</v>
-      </c>
-      <c r="M18" s="3">
-        <f>L18*$AG18</f>
         <v>172733557.47406772</v>
       </c>
       <c r="N18" s="3"/>
@@ -9209,11 +9893,11 @@
         <v>493.31306111715099</v>
       </c>
       <c r="S18" s="3">
+        <f t="shared" si="6"/>
+        <v>243357.77626877395</v>
+      </c>
+      <c r="T18" s="3">
         <f t="shared" si="2"/>
-        <v>243357.77626877395</v>
-      </c>
-      <c r="T18" s="3">
-        <f>S18*$AG18</f>
         <v>115480565.57282129</v>
       </c>
       <c r="U18" s="3"/>
@@ -9227,11 +9911,11 @@
         <v>474.53</v>
       </c>
       <c r="Z18" s="3">
+        <f t="shared" si="7"/>
+        <v>225178.72089999999</v>
+      </c>
+      <c r="AA18" s="3">
         <f t="shared" si="3"/>
-        <v>225178.72089999999</v>
-      </c>
-      <c r="AA18" s="3">
-        <f>Z18*$AG18</f>
         <v>106854058.42867699</v>
       </c>
       <c r="AB18" s="3"/>
@@ -9246,7 +9930,7 @@
         <v>474.53</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>225178.72089999999</v>
       </c>
     </row>
@@ -9264,11 +9948,11 @@
         <v>744.48154624870597</v>
       </c>
       <c r="E19" s="3">
+        <f t="shared" si="4"/>
+        <v>554252.77270486415</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>554252.77270486415</v>
-      </c>
-      <c r="F19" s="3">
-        <f>E19*$AG19</f>
         <v>328078843.74719024</v>
       </c>
       <c r="H19">
@@ -9284,11 +9968,11 @@
         <v>681.116499076433</v>
       </c>
       <c r="L19" s="3">
+        <f t="shared" si="5"/>
+        <v>463919.68531413656</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="1"/>
-        <v>463919.68531413656</v>
-      </c>
-      <c r="M19" s="3">
-        <f>L19*$AG19</f>
         <v>274607979.32799685</v>
       </c>
       <c r="N19" s="3"/>
@@ -9305,11 +9989,11 @@
         <v>596.14898326908406</v>
       </c>
       <c r="S19" s="3">
+        <f t="shared" si="6"/>
+        <v>355393.61025276268</v>
+      </c>
+      <c r="T19" s="3">
         <f t="shared" si="2"/>
-        <v>355393.61025276268</v>
-      </c>
-      <c r="T19" s="3">
-        <f>S19*$AG19</f>
         <v>210368139.71691778</v>
       </c>
       <c r="U19" s="3"/>
@@ -9323,11 +10007,11 @@
         <v>591.92999999999995</v>
       </c>
       <c r="Z19" s="3">
+        <f t="shared" si="7"/>
+        <v>350381.12489999994</v>
+      </c>
+      <c r="AA19" s="3">
         <f t="shared" si="3"/>
-        <v>350381.12489999994</v>
-      </c>
-      <c r="AA19" s="3">
-        <f>Z19*$AG19</f>
         <v>207401099.26205695</v>
       </c>
       <c r="AB19" s="3"/>
@@ -9342,7 +10026,7 @@
         <v>591.92999999999995</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>350381.12489999994</v>
       </c>
     </row>
@@ -9360,11 +10044,11 @@
         <v>895.74183541919797</v>
       </c>
       <c r="E20" s="3">
+        <f t="shared" si="4"/>
+        <v>802353.4357201535</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>802353.4357201535</v>
-      </c>
-      <c r="F20" s="3">
-        <f>E20*$AG20</f>
         <v>586552455.64886093</v>
       </c>
       <c r="H20">
@@ -9380,11 +10064,11 @@
         <v>847.68972389016199</v>
       </c>
       <c r="L20" s="3">
+        <f t="shared" si="5"/>
+        <v>718577.86798897909</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="1"/>
-        <v>718577.86798897909</v>
-      </c>
-      <c r="M20" s="3">
-        <f>L20*$AG20</f>
         <v>525309164.61466324</v>
       </c>
       <c r="N20" s="3"/>
@@ -9401,11 +10085,11 @@
         <v>750.58304375767204</v>
       </c>
       <c r="S20" s="3">
+        <f t="shared" si="6"/>
+        <v>563374.90557653143</v>
+      </c>
+      <c r="T20" s="3">
         <f t="shared" si="2"/>
-        <v>563374.90557653143</v>
-      </c>
-      <c r="T20" s="3">
-        <f>S20*$AG20</f>
         <v>411849590.97266752</v>
       </c>
       <c r="U20" s="3"/>
@@ -9419,11 +10103,11 @@
         <v>731.04</v>
       </c>
       <c r="Z20" s="3">
+        <f t="shared" si="7"/>
+        <v>534419.48159999994</v>
+      </c>
+      <c r="AA20" s="3">
         <f t="shared" si="3"/>
-        <v>534419.48159999994</v>
-      </c>
-      <c r="AA20" s="3">
-        <f>Z20*$AG20</f>
         <v>390682017.82886392</v>
       </c>
       <c r="AB20" s="3"/>
@@ -9438,7 +10122,7 @@
         <v>731.04</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>534419.48159999994</v>
       </c>
     </row>
@@ -9456,11 +10140,11 @@
         <v>1171.4654608539099</v>
       </c>
       <c r="E21" s="3">
+        <f t="shared" si="4"/>
+        <v>1372331.3259736635</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>1372331.3259736635</v>
-      </c>
-      <c r="F21" s="3">
-        <f>E21*$AG21</f>
         <v>1247970661.2139301</v>
       </c>
       <c r="H21">
@@ -9476,11 +10160,11 @@
         <v>1053.7927671919499</v>
       </c>
       <c r="L21" s="3">
+        <f t="shared" si="5"/>
+        <v>1110479.1961860671</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="1"/>
-        <v>1110479.1961860671</v>
-      </c>
-      <c r="M21" s="3">
-        <f>L21*$AG21</f>
         <v>1009847571.4276856</v>
       </c>
       <c r="N21" s="3"/>
@@ -9497,11 +10181,11 @@
         <v>932.73011804184705</v>
       </c>
       <c r="S21" s="3">
+        <f t="shared" si="6"/>
+        <v>869985.47310235794</v>
+      </c>
+      <c r="T21" s="3">
         <f t="shared" si="2"/>
-        <v>869985.47310235794</v>
-      </c>
-      <c r="T21" s="3">
-        <f>S21*$AG21</f>
         <v>791147389.52982223</v>
       </c>
       <c r="U21" s="3"/>
@@ -9515,11 +10199,11 @@
         <v>909.38</v>
       </c>
       <c r="Z21" s="3">
+        <f t="shared" si="7"/>
+        <v>826971.98439999996</v>
+      </c>
+      <c r="AA21" s="3">
         <f t="shared" si="3"/>
-        <v>826971.98439999996</v>
-      </c>
-      <c r="AA21" s="3">
-        <f>Z21*$AG21</f>
         <v>752031783.17367196</v>
       </c>
       <c r="AB21" s="3"/>
@@ -9534,7 +10218,7 @@
         <v>909.38</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>826971.98439999996</v>
       </c>
     </row>
@@ -9552,11 +10236,11 @@
         <v>1276.35507054342</v>
       </c>
       <c r="E22" s="3">
+        <f t="shared" si="4"/>
+        <v>1629082.2661018986</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>1629082.2661018986</v>
-      </c>
-      <c r="F22" s="3">
-        <f>E22*$AG22</f>
         <v>1645259053.0042903</v>
       </c>
       <c r="H22">
@@ -9572,11 +10256,11 @@
         <v>1154.97699925196</v>
       </c>
       <c r="L22" s="3">
+        <f t="shared" si="5"/>
+        <v>1333971.868801062</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="1"/>
-        <v>1333971.868801062</v>
-      </c>
-      <c r="M22" s="3">
-        <f>L22*$AG22</f>
         <v>1347218209.4582565</v>
       </c>
       <c r="N22" s="3"/>
@@ -9593,11 +10277,11 @@
         <v>940.77879371897802</v>
       </c>
       <c r="S22" s="3">
+        <f t="shared" si="6"/>
+        <v>885064.73871133535</v>
+      </c>
+      <c r="T22" s="3">
         <f t="shared" si="2"/>
-        <v>885064.73871133535</v>
-      </c>
-      <c r="T22" s="3">
-        <f>S22*$AG22</f>
         <v>893853431.56673884</v>
       </c>
       <c r="U22" s="3"/>
@@ -9611,11 +10295,11 @@
         <v>1009.93</v>
       </c>
       <c r="Z22" s="3">
+        <f t="shared" si="7"/>
+        <v>1019958.6048999999</v>
+      </c>
+      <c r="AA22" s="3">
         <f t="shared" si="3"/>
-        <v>1019958.6048999999</v>
-      </c>
-      <c r="AA22" s="3">
-        <f>Z22*$AG22</f>
         <v>1030086793.8466569</v>
       </c>
       <c r="AB22" s="3"/>
@@ -9630,7 +10314,7 @@
         <v>1009.93</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1019958.6048999999</v>
       </c>
     </row>
@@ -9648,11 +10332,11 @@
         <v>1043.60938214611</v>
       </c>
       <c r="E23" s="3">
+        <f t="shared" si="4"/>
+        <v>1089120.5425033853</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>1089120.5425033853</v>
-      </c>
-      <c r="F23" s="3">
-        <f>E23*$AG23</f>
         <v>922517773.11664248</v>
       </c>
       <c r="H23">
@@ -9668,11 +10352,11 @@
         <v>927.05369487667895</v>
       </c>
       <c r="L23" s="3">
+        <f t="shared" si="5"/>
+        <v>859428.55318450253</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="1"/>
-        <v>859428.55318450253</v>
-      </c>
-      <c r="M23" s="3">
-        <f>L23*$AG23</f>
         <v>727961767.40386915</v>
       </c>
       <c r="N23" s="3"/>
@@ -9689,11 +10373,11 @@
         <v>889.37632840399601</v>
       </c>
       <c r="S23" s="3">
+        <f t="shared" si="6"/>
+        <v>790990.25352537259</v>
+      </c>
+      <c r="T23" s="3">
         <f t="shared" si="2"/>
-        <v>790990.25352537259</v>
-      </c>
-      <c r="T23" s="3">
-        <f>S23*$AG23</f>
         <v>669992474.44359636</v>
       </c>
       <c r="U23" s="3"/>
@@ -9707,11 +10391,11 @@
         <v>847.03</v>
       </c>
       <c r="Z23" s="3">
+        <f t="shared" si="7"/>
+        <v>717459.82089999993</v>
+      </c>
+      <c r="AA23" s="3">
         <f t="shared" si="3"/>
-        <v>717459.82089999993</v>
-      </c>
-      <c r="AA23" s="3">
-        <f>Z23*$AG23</f>
         <v>607709992.09692693</v>
       </c>
       <c r="AB23" s="3"/>
@@ -9726,7 +10410,7 @@
         <v>847.03</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>717459.82089999993</v>
       </c>
     </row>
@@ -9744,11 +10428,11 @@
         <v>853.26910796661105</v>
       </c>
       <c r="E24" s="3">
+        <f t="shared" si="4"/>
+        <v>728068.17061013612</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>728068.17061013612</v>
-      </c>
-      <c r="F24" s="3">
-        <f>E24*$AG24</f>
         <v>490164615.18156803</v>
       </c>
       <c r="H24">
@@ -9764,11 +10448,11 @@
         <v>853.26910796661105</v>
       </c>
       <c r="L24" s="3">
+        <f t="shared" si="5"/>
+        <v>728068.17061013612</v>
+      </c>
+      <c r="M24" s="3">
         <f t="shared" si="1"/>
-        <v>728068.17061013612</v>
-      </c>
-      <c r="M24" s="3">
-        <f>L24*$AG24</f>
         <v>490164615.18156803</v>
       </c>
       <c r="N24" s="3"/>
@@ -9785,11 +10469,11 @@
         <v>779.98245926861</v>
       </c>
       <c r="S24" s="3">
+        <f t="shared" si="6"/>
+        <v>608372.63676670881</v>
+      </c>
+      <c r="T24" s="3">
         <f t="shared" si="2"/>
-        <v>608372.63676670881</v>
-      </c>
-      <c r="T24" s="3">
-        <f>S24*$AG24</f>
         <v>409580793.97681904</v>
       </c>
       <c r="U24" s="3"/>
@@ -9803,11 +10487,11 @@
         <v>673.24</v>
       </c>
       <c r="Z24" s="3">
+        <f t="shared" si="7"/>
+        <v>453252.09760000004</v>
+      </c>
+      <c r="AA24" s="3">
         <f t="shared" si="3"/>
-        <v>453252.09760000004</v>
-      </c>
-      <c r="AA24" s="3">
-        <f>Z24*$AG24</f>
         <v>305147442.18822402</v>
       </c>
       <c r="AB24" s="3"/>
@@ -9822,7 +10506,7 @@
         <v>673.24</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>453252.09760000004</v>
       </c>
     </row>
@@ -9840,11 +10524,11 @@
         <v>721.46456620610104</v>
       </c>
       <c r="E25" s="3">
+        <f t="shared" si="4"/>
+        <v>520511.12029095757</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>520511.12029095757</v>
-      </c>
-      <c r="F25" s="3">
-        <f>E25*$AG25</f>
         <v>324569914.16862947</v>
       </c>
       <c r="H25">
@@ -9860,11 +10544,11 @@
         <v>721.542649735993</v>
       </c>
       <c r="L25" s="3">
+        <f t="shared" si="5"/>
+        <v>520623.79538803786</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>520623.79538803786</v>
-      </c>
-      <c r="M25" s="3">
-        <f>L25*$AG25</f>
         <v>324640173.85216486</v>
       </c>
       <c r="N25" s="3"/>
@@ -9881,11 +10565,11 @@
         <v>721.46456620610104</v>
       </c>
       <c r="S25" s="3">
+        <f t="shared" si="6"/>
+        <v>520511.12029095757</v>
+      </c>
+      <c r="T25" s="3">
         <f t="shared" si="2"/>
-        <v>520511.12029095757</v>
-      </c>
-      <c r="T25" s="3">
-        <f>S25*$AG25</f>
         <v>324569914.16862947</v>
       </c>
       <c r="U25" s="3"/>
@@ -9899,11 +10583,11 @@
         <v>623.55999999999995</v>
       </c>
       <c r="Z25" s="3">
+        <f t="shared" si="7"/>
+        <v>388827.07359999995</v>
+      </c>
+      <c r="AA25" s="3">
         <f t="shared" si="3"/>
-        <v>388827.07359999995</v>
-      </c>
-      <c r="AA25" s="3">
-        <f>Z25*$AG25</f>
         <v>242457010.01401594</v>
       </c>
       <c r="AB25" s="3"/>
@@ -9918,7 +10602,7 @@
         <v>623.55999999999995</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>388827.07359999995</v>
       </c>
     </row>
@@ -9951,44 +10635,35 @@
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27">
         <f>SQRT(SUM(E2:E25))</f>
         <v>3759.3771563843106</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <f>SUM(F2:F25)</f>
         <v>9569631330.5674152</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27">
         <f>SQRT(SUM(L2:L25))</f>
         <v>3540.9165661697698</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27">
         <f>SUM(M2:M25)</f>
         <v>8299276047.4789391</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="S27" s="4">
+      <c r="S27">
         <f>SQRT(SUM(S2:S25))</f>
         <v>3219.7761310969313</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27">
         <f>SUM(T2:T25)</f>
         <v>6916166274.9470177</v>
       </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4">
+      <c r="AA27">
         <f>SUM(AA2:AA25)</f>
         <v>6492210081.5113745</v>
       </c>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AH27" s="4">
+      <c r="AH27">
         <f>SQRT(SUM(AH2:AH25))</f>
         <v>2997.8205687632471</v>
       </c>
